--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Psap-Gpr37l1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>369.660016</v>
+        <v>137.0025913333334</v>
       </c>
       <c r="H2">
-        <v>1108.980048</v>
+        <v>411.007774</v>
       </c>
       <c r="I2">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="J2">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.01843866666666667</v>
+        <v>0.349437</v>
       </c>
       <c r="N2">
-        <v>0.055316</v>
+        <v>1.048311</v>
       </c>
       <c r="O2">
-        <v>0.04188492775614727</v>
+        <v>0.3311673788233273</v>
       </c>
       <c r="P2">
-        <v>0.04188492775614728</v>
+        <v>0.3311673788233273</v>
       </c>
       <c r="Q2">
-        <v>6.816037815018667</v>
+        <v>47.87377450774601</v>
       </c>
       <c r="R2">
-        <v>61.34434033516801</v>
+        <v>430.863970569714</v>
       </c>
       <c r="S2">
-        <v>0.006879327689740177</v>
+        <v>0.02332464810098686</v>
       </c>
       <c r="T2">
-        <v>0.006879327689740177</v>
+        <v>0.02332464810098686</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>369.660016</v>
+        <v>137.0025913333334</v>
       </c>
       <c r="H3">
-        <v>1108.980048</v>
+        <v>411.007774</v>
       </c>
       <c r="I3">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="J3">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.372203</v>
       </c>
       <c r="O3">
-        <v>0.2818297737656607</v>
+        <v>0.1175810345404931</v>
       </c>
       <c r="P3">
-        <v>0.2818297737656607</v>
+        <v>0.1175810345404931</v>
       </c>
       <c r="Q3">
-        <v>45.86285564508267</v>
+        <v>16.99759183401356</v>
       </c>
       <c r="R3">
-        <v>412.7657008057441</v>
+        <v>152.978326506122</v>
       </c>
       <c r="S3">
-        <v>0.04628871220088877</v>
+        <v>0.008281420300971383</v>
       </c>
       <c r="T3">
-        <v>0.04628871220088877</v>
+        <v>0.008281420300971383</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,51 +661,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>369.660016</v>
+        <v>137.0025913333334</v>
       </c>
       <c r="H4">
-        <v>1108.980048</v>
+        <v>411.007774</v>
       </c>
       <c r="I4">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="J4">
-        <v>0.1642435133179984</v>
+        <v>0.07043159922291199</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.244146</v>
+        <v>0.5816626666666668</v>
       </c>
       <c r="N4">
-        <v>0.732438</v>
+        <v>1.744988</v>
       </c>
       <c r="O4">
-        <v>0.554597453103207</v>
+        <v>0.5512515866361798</v>
       </c>
       <c r="P4">
-        <v>0.5545974531032071</v>
+        <v>0.5512515866361797</v>
       </c>
       <c r="Q4">
-        <v>90.25101426633601</v>
+        <v>79.68929261519025</v>
       </c>
       <c r="R4">
-        <v>812.2591283970241</v>
+        <v>717.2036335367121</v>
       </c>
       <c r="S4">
-        <v>0.09108903417488459</v>
+        <v>0.03882553082095376</v>
       </c>
       <c r="T4">
-        <v>0.09108903417488459</v>
+        <v>0.03882553082095375</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>369.660016</v>
+        <v>249.925644</v>
       </c>
       <c r="H5">
-        <v>1108.980048</v>
+        <v>749.776932</v>
       </c>
       <c r="I5">
-        <v>0.1642435133179984</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="J5">
-        <v>0.1642435133179984</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.05356966666666666</v>
+        <v>0.349437</v>
       </c>
       <c r="N5">
-        <v>0.160709</v>
+        <v>1.048311</v>
       </c>
       <c r="O5">
-        <v>0.121687845374985</v>
+        <v>0.3311673788233273</v>
       </c>
       <c r="P5">
-        <v>0.121687845374985</v>
+        <v>0.3311673788233273</v>
       </c>
       <c r="Q5">
-        <v>19.80256383711467</v>
+        <v>87.333267262428</v>
       </c>
       <c r="R5">
-        <v>178.223074534032</v>
+        <v>785.9994053618519</v>
       </c>
       <c r="S5">
-        <v>0.01998643925248489</v>
+        <v>0.04254976231456281</v>
       </c>
       <c r="T5">
-        <v>0.01998643925248489</v>
+        <v>0.04254976231456281</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>749.776932</v>
       </c>
       <c r="I6">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="J6">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -803,28 +803,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.01843866666666667</v>
+        <v>0.1240676666666667</v>
       </c>
       <c r="N6">
-        <v>0.055316</v>
+        <v>0.372203</v>
       </c>
       <c r="O6">
-        <v>0.04188492775614727</v>
+        <v>0.1175810345404931</v>
       </c>
       <c r="P6">
-        <v>0.04188492775614728</v>
+        <v>0.1175810345404931</v>
       </c>
       <c r="Q6">
-        <v>4.608295641168</v>
+        <v>31.007691491244</v>
       </c>
       <c r="R6">
-        <v>41.474660770512</v>
+        <v>279.069223421196</v>
       </c>
       <c r="S6">
-        <v>0.004651085669880363</v>
+        <v>0.01510730039345883</v>
       </c>
       <c r="T6">
-        <v>0.004651085669880363</v>
+        <v>0.01510730039345883</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,45 +853,45 @@
         <v>749.776932</v>
       </c>
       <c r="I7">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="J7">
-        <v>0.1110443760810294</v>
+        <v>0.1284841594777439</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.1240676666666667</v>
+        <v>0.5816626666666668</v>
       </c>
       <c r="N7">
-        <v>0.372203</v>
+        <v>1.744988</v>
       </c>
       <c r="O7">
-        <v>0.2818297737656607</v>
+        <v>0.5512515866361798</v>
       </c>
       <c r="P7">
-        <v>0.2818297737656607</v>
+        <v>0.5512515866361797</v>
       </c>
       <c r="Q7">
-        <v>31.007691491244</v>
+        <v>145.372416557424</v>
       </c>
       <c r="R7">
-        <v>279.069223421196</v>
+        <v>1308.351749016816</v>
       </c>
       <c r="S7">
-        <v>0.03129561138886545</v>
+        <v>0.07082709676972229</v>
       </c>
       <c r="T7">
-        <v>0.03129561138886545</v>
+        <v>0.07082709676972228</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,51 +909,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>249.925644</v>
+        <v>88.73577866666666</v>
       </c>
       <c r="H8">
-        <v>749.776932</v>
+        <v>266.207336</v>
       </c>
       <c r="I8">
-        <v>0.1110443760810294</v>
+        <v>0.04561813567874526</v>
       </c>
       <c r="J8">
-        <v>0.1110443760810294</v>
+        <v>0.04561813567874527</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.244146</v>
+        <v>0.349437</v>
       </c>
       <c r="N8">
-        <v>0.732438</v>
+        <v>1.048311</v>
       </c>
       <c r="O8">
-        <v>0.554597453103207</v>
+        <v>0.3311673788233273</v>
       </c>
       <c r="P8">
-        <v>0.5545974531032071</v>
+        <v>0.3311673788233273</v>
       </c>
       <c r="Q8">
-        <v>61.01834628002401</v>
+        <v>31.007564289944</v>
       </c>
       <c r="R8">
-        <v>549.165116520216</v>
+        <v>279.068078609496</v>
       </c>
       <c r="S8">
-        <v>0.06158492815597356</v>
+        <v>0.01510723841953697</v>
       </c>
       <c r="T8">
-        <v>0.06158492815597356</v>
+        <v>0.01510723841953697</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>249.925644</v>
+        <v>88.73577866666666</v>
       </c>
       <c r="H9">
-        <v>749.776932</v>
+        <v>266.207336</v>
       </c>
       <c r="I9">
-        <v>0.1110443760810294</v>
+        <v>0.04561813567874526</v>
       </c>
       <c r="J9">
-        <v>0.1110443760810294</v>
+        <v>0.04561813567874527</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -989,28 +989,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.05356966666666666</v>
+        <v>0.1240676666666667</v>
       </c>
       <c r="N9">
-        <v>0.160709</v>
+        <v>0.372203</v>
       </c>
       <c r="O9">
-        <v>0.121687845374985</v>
+        <v>0.1175810345404931</v>
       </c>
       <c r="P9">
-        <v>0.121687845374985</v>
+        <v>0.1175810345404931</v>
       </c>
       <c r="Q9">
-        <v>13.388433440532</v>
+        <v>11.00924100902311</v>
       </c>
       <c r="R9">
-        <v>120.495900964788</v>
+        <v>99.083169081208</v>
       </c>
       <c r="S9">
-        <v>0.01351275086630999</v>
+        <v>0.005363827586915447</v>
       </c>
       <c r="T9">
-        <v>0.01351275086630999</v>
+        <v>0.005363827586915448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,51 +1033,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>78.101406</v>
+        <v>88.73577866666666</v>
       </c>
       <c r="H10">
-        <v>234.304218</v>
+        <v>266.207336</v>
       </c>
       <c r="I10">
-        <v>0.03470120857354343</v>
+        <v>0.04561813567874526</v>
       </c>
       <c r="J10">
-        <v>0.03470120857354343</v>
+        <v>0.04561813567874527</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.01843866666666667</v>
+        <v>0.5816626666666668</v>
       </c>
       <c r="N10">
-        <v>0.055316</v>
+        <v>1.744988</v>
       </c>
       <c r="O10">
-        <v>0.04188492775614727</v>
+        <v>0.5512515866361798</v>
       </c>
       <c r="P10">
-        <v>0.04188492775614728</v>
+        <v>0.5512515866361797</v>
       </c>
       <c r="Q10">
-        <v>1.440085791432</v>
+        <v>51.61428964799645</v>
       </c>
       <c r="R10">
-        <v>12.960772122888</v>
+        <v>464.528606831968</v>
       </c>
       <c r="S10">
-        <v>0.001453457614153865</v>
+        <v>0.02514706967229285</v>
       </c>
       <c r="T10">
-        <v>0.001453457614153865</v>
+        <v>0.02514706967229284</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,7 +1086,7 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1095,51 +1095,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>78.101406</v>
+        <v>1469.52242</v>
       </c>
       <c r="H11">
-        <v>234.304218</v>
+        <v>4408.56726</v>
       </c>
       <c r="I11">
-        <v>0.03470120857354343</v>
+        <v>0.7554661056205989</v>
       </c>
       <c r="J11">
-        <v>0.03470120857354343</v>
+        <v>0.7554661056205988</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.1240676666666667</v>
+        <v>0.349437</v>
       </c>
       <c r="N11">
-        <v>0.372203</v>
+        <v>1.048311</v>
       </c>
       <c r="O11">
-        <v>0.2818297737656607</v>
+        <v>0.3311673788233273</v>
       </c>
       <c r="P11">
-        <v>0.2818297737656607</v>
+        <v>0.3311673788233273</v>
       </c>
       <c r="Q11">
-        <v>9.689859205806</v>
+        <v>513.50550587754</v>
       </c>
       <c r="R11">
-        <v>87.208732852254</v>
+        <v>4621.54955289786</v>
       </c>
       <c r="S11">
-        <v>0.009779833761676748</v>
+        <v>0.2501857299882406</v>
       </c>
       <c r="T11">
-        <v>0.009779833761676749</v>
+        <v>0.2501857299882406</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1148,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>78.101406</v>
+        <v>1469.52242</v>
       </c>
       <c r="H12">
-        <v>234.304218</v>
+        <v>4408.56726</v>
       </c>
       <c r="I12">
-        <v>0.03470120857354343</v>
+        <v>0.7554661056205989</v>
       </c>
       <c r="J12">
-        <v>0.03470120857354343</v>
+        <v>0.7554661056205988</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1175,33 +1175,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.244146</v>
+        <v>0.1240676666666667</v>
       </c>
       <c r="N12">
-        <v>0.732438</v>
+        <v>0.372203</v>
       </c>
       <c r="O12">
-        <v>0.554597453103207</v>
+        <v>0.1175810345404931</v>
       </c>
       <c r="P12">
-        <v>0.5545974531032071</v>
+        <v>0.1175810345404931</v>
       </c>
       <c r="Q12">
-        <v>19.068145869276</v>
+        <v>182.3202177637533</v>
       </c>
       <c r="R12">
-        <v>171.613312823484</v>
+        <v>1640.88195987378</v>
       </c>
       <c r="S12">
-        <v>0.01924520189449035</v>
+        <v>0.08882848625914745</v>
       </c>
       <c r="T12">
-        <v>0.01924520189449036</v>
+        <v>0.08882848625914744</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,7 +1210,7 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>78.101406</v>
+        <v>1469.52242</v>
       </c>
       <c r="H13">
-        <v>234.304218</v>
+        <v>4408.56726</v>
       </c>
       <c r="I13">
-        <v>0.03470120857354343</v>
+        <v>0.7554661056205989</v>
       </c>
       <c r="J13">
-        <v>0.03470120857354343</v>
+        <v>0.7554661056205988</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.05356966666666666</v>
+        <v>0.5816626666666668</v>
       </c>
       <c r="N13">
-        <v>0.160709</v>
+        <v>1.744988</v>
       </c>
       <c r="O13">
-        <v>0.121687845374985</v>
+        <v>0.5512515866361798</v>
       </c>
       <c r="P13">
-        <v>0.121687845374985</v>
+        <v>0.5512515866361797</v>
       </c>
       <c r="Q13">
-        <v>4.183866285618</v>
+        <v>854.7663295436535</v>
       </c>
       <c r="R13">
-        <v>37.654796570562</v>
+        <v>7692.896965892881</v>
       </c>
       <c r="S13">
-        <v>0.004222715303222457</v>
+        <v>0.4164518893732109</v>
       </c>
       <c r="T13">
-        <v>0.004222715303222458</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14">
-        <v>1552.995524333333</v>
-      </c>
-      <c r="H14">
-        <v>4658.986573</v>
-      </c>
-      <c r="I14">
-        <v>0.6900109020274288</v>
-      </c>
-      <c r="J14">
-        <v>0.6900109020274288</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M14">
-        <v>0.01843866666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.055316</v>
-      </c>
-      <c r="O14">
-        <v>0.04188492775614727</v>
-      </c>
-      <c r="P14">
-        <v>0.04188492775614728</v>
-      </c>
-      <c r="Q14">
-        <v>28.63516680800755</v>
-      </c>
-      <c r="R14">
-        <v>257.716501272068</v>
-      </c>
-      <c r="S14">
-        <v>0.02890105678237287</v>
-      </c>
-      <c r="T14">
-        <v>0.02890105678237287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>3</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15">
-        <v>1552.995524333333</v>
-      </c>
-      <c r="H15">
-        <v>4658.986573</v>
-      </c>
-      <c r="I15">
-        <v>0.6900109020274288</v>
-      </c>
-      <c r="J15">
-        <v>0.6900109020274288</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M15">
-        <v>0.1240676666666667</v>
-      </c>
-      <c r="N15">
-        <v>0.372203</v>
-      </c>
-      <c r="O15">
-        <v>0.2818297737656607</v>
-      </c>
-      <c r="P15">
-        <v>0.2818297737656607</v>
-      </c>
-      <c r="Q15">
-        <v>192.6765310478132</v>
-      </c>
-      <c r="R15">
-        <v>1734.088779430319</v>
-      </c>
-      <c r="S15">
-        <v>0.1944656164142297</v>
-      </c>
-      <c r="T15">
-        <v>0.1944656164142297</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>1552.995524333333</v>
-      </c>
-      <c r="H16">
-        <v>4658.986573</v>
-      </c>
-      <c r="I16">
-        <v>0.6900109020274288</v>
-      </c>
-      <c r="J16">
-        <v>0.6900109020274288</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M16">
-        <v>0.244146</v>
-      </c>
-      <c r="N16">
-        <v>0.732438</v>
-      </c>
-      <c r="O16">
-        <v>0.554597453103207</v>
-      </c>
-      <c r="P16">
-        <v>0.5545974531032071</v>
-      </c>
-      <c r="Q16">
-        <v>379.157645283886</v>
-      </c>
-      <c r="R16">
-        <v>3412.418807554974</v>
-      </c>
-      <c r="S16">
-        <v>0.3826782888778584</v>
-      </c>
-      <c r="T16">
-        <v>0.3826782888778585</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1552.995524333333</v>
-      </c>
-      <c r="H17">
-        <v>4658.986573</v>
-      </c>
-      <c r="I17">
-        <v>0.6900109020274288</v>
-      </c>
-      <c r="J17">
-        <v>0.6900109020274288</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.05356966666666666</v>
-      </c>
-      <c r="N17">
-        <v>0.160709</v>
-      </c>
-      <c r="O17">
-        <v>0.121687845374985</v>
-      </c>
-      <c r="P17">
-        <v>0.121687845374985</v>
-      </c>
-      <c r="Q17">
-        <v>83.19345257336188</v>
-      </c>
-      <c r="R17">
-        <v>748.741073160257</v>
-      </c>
-      <c r="S17">
-        <v>0.08396593995296769</v>
-      </c>
-      <c r="T17">
-        <v>0.08396593995296771</v>
+        <v>0.4164518893732108</v>
       </c>
     </row>
   </sheetData>
